--- a/data/trans_bre/POLIPATOLOGIA_5-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_5-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>8.724227216224717</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.520371626586062</v>
+        <v>3.520371626586061</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.389758517604153</v>
@@ -649,7 +649,7 @@
         <v>1.854010704253984</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1.415293906106164</v>
+        <v>1.415293906106163</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3437625589985486</v>
+        <v>0.5080116040082019</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5950989778628522</v>
+        <v>0.003177151907672606</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.015026906193573</v>
+        <v>4.243180618043247</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.048895132492954</v>
+        <v>0.7995507524469696</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.01294947168948218</v>
+        <v>-0.02763081825420746</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02831475501237576</v>
+        <v>-0.05324356913288099</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5253141358385827</v>
+        <v>0.5718511201625219</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2222897787292427</v>
+        <v>0.05077585979687593</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.200899861495149</v>
+        <v>7.521791653264451</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.393639127210657</v>
+        <v>9.151807066988896</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.87079772101224</v>
+        <v>13.99766106124037</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.941436913376955</v>
+        <v>5.71264231137641</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4.920456271303371</v>
+        <v>5.257396957712969</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.553907853909125</v>
+        <v>3.574781693082816</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4.530231194630194</v>
+        <v>4.690075179043239</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4.273382991262319</v>
+        <v>3.758056494997937</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.368404036496378</v>
+        <v>5.132508013008068</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8203297278008473</v>
+        <v>0.6931972316491384</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.963723935986543</v>
+        <v>2.128437177303913</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.112347864219647</v>
+        <v>4.395495299969342</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.105733451741729</v>
+        <v>0.9234815774374184</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1052482651703956</v>
+        <v>0.04002747358343174</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7354627598474816</v>
+        <v>0.76445737200227</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4996649498698788</v>
+        <v>0.5219258050049994</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.01147555987295</v>
+        <v>11.97146385431872</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.669490064905081</v>
+        <v>8.176108425284635</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.737952111289915</v>
+        <v>6.790538270987994</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.66431256544725</v>
+        <v>10.78408181285403</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.882286070130328</v>
+        <v>5.792046685024933</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.196140193303318</v>
+        <v>2.263108760290424</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>8.177140503436107</v>
+        <v>9.797821257878953</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.454559164664722</v>
+        <v>2.407573146560491</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>4.646029833252293</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.538568418484109</v>
+        <v>4.538568418484113</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.058418845105569</v>
@@ -849,7 +849,7 @@
         <v>3.030092157916396</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3625138246822772</v>
+        <v>0.3625138246822774</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.55005428681837</v>
+        <v>-0.5932709216569448</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.364114458623135</v>
+        <v>1.674554003469774</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.844733964522667</v>
+        <v>1.954710669361082</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.03732903087532266</v>
+        <v>0.06895627249888937</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.405471512364907</v>
+        <v>-0.5257078547433165</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3841998309607743</v>
+        <v>0.2559952436917353</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4773541350424787</v>
+        <v>0.5304403265588373</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.02005130539667013</v>
+        <v>0.01519144034232936</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.301468767013219</v>
+        <v>3.484213243464504</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.04362602841447</v>
+        <v>9.299503649207107</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.367125067834227</v>
+        <v>8.444456428689008</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.554790771120597</v>
+        <v>8.779824450487741</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>9.229029212521583</v>
+        <v>7.512541089107354</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>6.019130196498289</v>
+        <v>5.997979641875037</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>10.78549993775451</v>
+        <v>11.16954578621871</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.810000401337171</v>
+        <v>0.8776545642297137</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.8979794944851136</v>
+        <v>-0.8831444040278411</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.200281001788822</v>
+        <v>5.902397964796654</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.541050913241814</v>
+        <v>4.248006372992349</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.962721281528069</v>
+        <v>1.924817170327805</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.326602532763425</v>
+        <v>-0.3087997194401194</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.027097442193573</v>
+        <v>0.8665496179616795</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4511495715829375</v>
+        <v>0.5431412222617698</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1553691342598246</v>
+        <v>0.1540256713414449</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.341956076584599</v>
+        <v>4.279301210517969</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.17759328475347</v>
+        <v>14.22311032644745</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.51946743647296</v>
+        <v>12.72544141231003</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.07765591647921</v>
+        <v>9.925951536552899</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.805066252443881</v>
+        <v>2.912147639911328</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5.317164033239372</v>
+        <v>5.161280212831808</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.176467201594014</v>
+        <v>3.458158503331404</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.38056431787912</v>
+        <v>1.335161554170108</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>6.078784390308075</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.422461321921684</v>
+        <v>8.422461321921688</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.205669073917018</v>
@@ -1049,7 +1049,7 @@
         <v>1.350833925229216</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.9548863133434915</v>
+        <v>0.9548863133434921</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.5980732331187048</v>
+        <v>-0.71060912454309</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.763281447938711</v>
+        <v>1.724907636248202</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.133239306680972</v>
+        <v>1.100783037977267</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.974017870234007</v>
+        <v>3.832818954707871</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5275549004492885</v>
+        <v>-0.3299984075884252</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09747405758616808</v>
+        <v>0.1143452212979363</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07718775154353281</v>
+        <v>0.1209640896518809</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3083600926529687</v>
+        <v>0.3016464806256363</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.959266079925196</v>
+        <v>7.112621686115883</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.34696627794733</v>
+        <v>15.71376405813569</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.02636131681294</v>
+        <v>10.89829992970315</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.01866893939448</v>
+        <v>12.56564577301952</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6.276246737981152</v>
+        <v>8.711311654487215</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.419096568653826</v>
+        <v>2.586734147746941</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4.170939029665632</v>
+        <v>4.166086801874334</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.915228989959458</v>
+        <v>1.878903934406286</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>2.86983524404217</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10.99480179963824</v>
+        <v>10.99480179963822</v>
       </c>
       <c r="G19" s="6" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>0.7640788563532929</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.6498665238890076</v>
+        <v>0.6498665238890066</v>
       </c>
     </row>
     <row r="20">
@@ -1162,26 +1162,26 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.309670438107408</v>
+        <v>2.218262511459383</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.151539724172917</v>
+        <v>-2.397206266122556</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.6821499701894375</v>
+        <v>-0.8153508368434377</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4.951645769172548</v>
+        <v>6.29053585302838</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.3292979269432369</v>
+        <v>-0.342929320479317</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1920462409352299</v>
+        <v>-0.2444855840298376</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2648187993648813</v>
+        <v>0.2930770767365229</v>
       </c>
     </row>
     <row r="21">
@@ -1192,26 +1192,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.446931207770316</v>
+        <v>7.36089149025546</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6.012239655559138</v>
+        <v>5.430403263895075</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6.845310825332662</v>
+        <v>6.999835610301515</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15.53565965709237</v>
+        <v>15.97238580893413</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>1.966620096474294</v>
+        <v>1.887112813901715</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.094461801664451</v>
+        <v>3.007240995359779</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.079256351662241</v>
+        <v>1.100354053068715</v>
       </c>
     </row>
     <row r="22">
@@ -1258,28 +1258,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.451395592503182</v>
+        <v>0.2058743072930795</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.023654617363579</v>
+        <v>3.961617027064039</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.601422260681474</v>
+        <v>3.606311868159685</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9.891531622361157</v>
+        <v>10.0741211721862</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.03800268278194613</v>
+        <v>0.02579352144429563</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9002203471045677</v>
+        <v>0.8887131274955808</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6524395703091401</v>
+        <v>0.6438043094378042</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.8472939036386412</v>
+        <v>0.8937929037314379</v>
       </c>
     </row>
     <row r="24">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.670088105333805</v>
+        <v>4.874325548138172</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.536997048896668</v>
+        <v>9.543766633471726</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.45269619811295</v>
+        <v>9.544817858574497</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16.82000790402396</v>
+        <v>16.80862045334447</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.967937343931114</v>
+        <v>1.949614706694363</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>4.426523550765807</v>
+        <v>4.361723603025603</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>3.232365328280498</v>
+        <v>3.124834899322467</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.131808194301924</v>
+        <v>2.13649755687011</v>
       </c>
     </row>
     <row r="25">
@@ -1335,7 +1335,7 @@
         <v>7.430870087401561</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6.198326750347165</v>
+        <v>6.198326750347166</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2643236399421098</v>
@@ -1347,7 +1347,7 @@
         <v>2.158852939857558</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.9873663439968919</v>
+        <v>0.9873663439968922</v>
       </c>
     </row>
     <row r="26">
@@ -1358,28 +1358,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.31785337144544</v>
+        <v>-0.8998407638846919</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>4.393458588338756</v>
+        <v>4.213896336902649</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4.788056022212149</v>
+        <v>4.844673729160334</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.941656412988099</v>
+        <v>3.814917908668413</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1607975973544721</v>
+        <v>-0.1049684071671385</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.632502088318478</v>
+        <v>1.414223282901033</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9969026812208173</v>
+        <v>1.000600402674641</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.5108722117660395</v>
+        <v>0.4838588705438687</v>
       </c>
     </row>
     <row r="27">
@@ -1390,28 +1390,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.49556726581338</v>
+        <v>4.54858446478466</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>8.558093031423732</v>
+        <v>8.457374521655838</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>10.18725938920537</v>
+        <v>10.18734311751556</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8.782904000386333</v>
+        <v>8.545791486360651</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7841253376679537</v>
+        <v>0.8009084850492122</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>7.434998533568153</v>
+        <v>6.917421605981532</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>3.831760556826051</v>
+        <v>4.091738595973701</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.745143986518778</v>
+        <v>1.640828065021412</v>
       </c>
     </row>
     <row r="28">
@@ -1435,7 +1435,7 @@
         <v>6.275004588448127</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7.991848614998409</v>
+        <v>7.991848614998408</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9641593221157291</v>
@@ -1458,28 +1458,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.226045848534534</v>
+        <v>2.229812890146393</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>4.967786322988085</v>
+        <v>4.9340804745834</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5.083972917731493</v>
+        <v>5.136482302466725</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6.69440996245613</v>
+        <v>6.682365383120424</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.5718901328684384</v>
+        <v>0.5605937206772432</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>1.135502440991153</v>
+        <v>1.144483645483919</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>1.271127702688052</v>
+        <v>1.287140664238448</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.7375879176148</v>
+        <v>0.7416305367502581</v>
       </c>
     </row>
     <row r="30">
@@ -1490,28 +1490,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.375695507797387</v>
+        <v>4.375020767160207</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.310898388948668</v>
+        <v>7.411583699398007</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.496051168888139</v>
+        <v>7.609044284354104</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9.290753102411422</v>
+        <v>9.271211430852906</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1.491217087283548</v>
+        <v>1.473321049961859</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2.195769156551957</v>
+        <v>2.242582598237616</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2.511875072759768</v>
+        <v>2.48907258703871</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1.199072505519556</v>
+        <v>1.198796255597829</v>
       </c>
     </row>
     <row r="31">
